--- a/xlsx/所得税_intext.xlsx
+++ b/xlsx/所得税_intext.xlsx
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>貨幣基數</t>
+    <t>货币基数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
   </si>
   <si>
-    <t>存款準備金比率</t>
+    <t>存款准备金比率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
   </si>
   <si>
-    <t>存款準備金</t>
+    <t>存款准备金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
   </si>
   <si>
-    <t>貿易利得</t>
+    <t>贸易利得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>商務部</t>
+    <t>商务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
   </si>
   <si>
-    <t>稅</t>
+    <t>税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E4%BA%BA</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -305,31 +305,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%8B%99%E6%A2%9D%E4%BE%8B</t>
   </si>
   <si>
-    <t>稅務條例</t>
+    <t>税务条例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%BE%97%E7%A8%85</t>
   </si>
   <si>
-    <t>利得稅</t>
+    <t>利得税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%AA%E4%BF%B8%E7%A8%85</t>
   </si>
   <si>
-    <t>薪俸稅</t>
+    <t>薪俸税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%A5%AD%E7%A8%85</t>
   </si>
   <si>
-    <t>物業稅</t>
+    <t>物业税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E5%BE%97%E7%A8%85</t>
